--- a/DB_cell/extra_menu_key.xlsx
+++ b/DB_cell/extra_menu_key.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="300">
   <si>
     <t>name</t>
   </si>
@@ -823,10 +823,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>썩어찜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>반마리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -967,7 +963,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>떡볶이</t>
+    <t>배꼽살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메 밀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TACO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘리포니아롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브리또</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김.치.돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포테이토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿔보로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젓갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보족원쌈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해삼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이면수구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육파장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튀볶이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스키야끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스윗 칠리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠발라야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요거트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오븐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야끼도리동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -975,87 +1059,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배꼽살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메 밀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TACO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘리포니아롤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브리또</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김.치.돈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>편육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포테이토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요거트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿔보로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젓갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보족원쌈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해삼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이면수구이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>육파장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튀볶이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스키야끼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스윗 칠리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠발라야</t>
+    <t>떡볶기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉬림프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿔보러우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙성회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육계장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카푸치노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고쉬불패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄부침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄탄멘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리얼뿌라이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섞어찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초꼬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특탕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1417,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I278"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I175" sqref="I175"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="I292" sqref="I292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1462,17 +1522,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1483,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1491,12 +1551,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1504,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1512,32 +1572,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1545,12 +1605,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1558,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1566,12 +1626,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1579,12 +1639,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1592,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1603,12 +1663,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1619,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1627,22 +1687,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1650,12 +1710,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1663,17 +1723,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1684,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1692,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1700,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1708,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1719,12 +1779,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1732,12 +1792,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1745,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -1753,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1761,12 +1821,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1774,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1782,12 +1842,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1798,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1809,12 +1869,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -1825,12 +1885,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -1841,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1849,12 +1909,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -1862,12 +1922,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -1878,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -1889,27 +1949,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -1920,12 +1980,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -1933,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -1947,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -1955,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -1963,22 +2023,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -1986,12 +2046,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -2002,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -2013,12 +2073,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -2032,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -2043,12 +2103,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2059,12 +2119,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -2072,49 +2132,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2122,12 +2194,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -2135,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -2149,7 +2221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -2163,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2180,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -2188,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -2199,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -2210,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -2221,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -2232,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -2240,12 +2312,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -2253,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -2264,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -2272,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -2286,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -2294,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -2305,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -2319,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -2330,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>118</v>
       </c>
@@ -2338,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>119</v>
       </c>
@@ -2346,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>120</v>
       </c>
@@ -2360,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -2374,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -2382,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>123</v>
       </c>
@@ -2396,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>124</v>
       </c>
@@ -2404,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -2412,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -2423,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -2437,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -2448,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -2462,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -2470,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -2478,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -2492,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -2506,7 +2578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -2517,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -2528,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -2539,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2553,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>139</v>
       </c>
@@ -2564,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -2572,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -2586,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -2594,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -2608,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -2625,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -2636,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -2647,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -2655,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -2666,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -2680,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -2688,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -2699,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -2710,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -2725,655 +2797,1530 @@
       <c r="A148" t="s">
         <v>154</v>
       </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>155</v>
       </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>156</v>
       </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>157</v>
       </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>158</v>
       </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>159</v>
       </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>160</v>
       </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>161</v>
       </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>162</v>
       </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>163</v>
       </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>164</v>
       </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>165</v>
       </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
+        <v>296</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>267</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>239</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>240</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>243</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>245</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>246</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>247</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>250</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>252</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>253</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>254</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>256</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>258</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>259</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>260</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>285</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>284</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>261</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>263</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>264</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>265</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>266</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>268</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>281</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+      <c r="D268">
+        <v>1</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+      <c r="C269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+      <c r="E273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+      <c r="E279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>284</v>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>286</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>288</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>290</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>292</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>293</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>295</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>298</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>299</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>291</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>3</v>
+      </c>
+      <c r="E294" t="s">
+        <v>4</v>
+      </c>
+      <c r="F294" t="s">
+        <v>5</v>
+      </c>
+      <c r="G294" t="s">
+        <v>6</v>
+      </c>
+      <c r="H294" t="s">
+        <v>7</v>
+      </c>
+      <c r="I294" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
